--- a/MicroservicesAssignment2/MicroservicesAssignment2.xlsx
+++ b/MicroservicesAssignment2/MicroservicesAssignment2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Placement\assignments\MicroservicesAssignment2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Placement\assignments\Gateway-Assignments\MicroservicesAssignment2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CB9E578-E329-4A9B-896E-3D293B7E4EB7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71E5C16E-3B9C-4A27-B9E0-D3985138307B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1296" yWindow="1680" windowWidth="23256" windowHeight="12576" xr2:uid="{4AE0A63C-8B27-41F2-BC31-718AAFAF1380}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4AE0A63C-8B27-41F2-BC31-718AAFAF1380}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="46">
   <si>
     <t>Staff</t>
   </si>
@@ -105,15 +105,6 @@
     <t>LabelNo.</t>
   </si>
   <si>
-    <t>StaffID</t>
-  </si>
-  <si>
-    <t>DieseaseId</t>
-  </si>
-  <si>
-    <t>MedicineID</t>
-  </si>
-  <si>
     <t>HospitalManagement.Api</t>
   </si>
   <si>
@@ -123,18 +114,12 @@
     <t xml:space="preserve">  --------------------&gt;</t>
   </si>
   <si>
-    <t>Patient.API</t>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
     <t>Time</t>
   </si>
   <si>
-    <t>DieseaseID</t>
-  </si>
-  <si>
     <t>Booking Date and time</t>
   </si>
   <si>
@@ -151,6 +136,33 @@
   </si>
   <si>
     <t>Microservices</t>
+  </si>
+  <si>
+    <t>Apponitment Table</t>
+  </si>
+  <si>
+    <t>Patient table</t>
+  </si>
+  <si>
+    <t>Staff Table</t>
+  </si>
+  <si>
+    <t>Diesease.Api</t>
+  </si>
+  <si>
+    <t>Doctor table</t>
+  </si>
+  <si>
+    <t>Medicine Table</t>
+  </si>
+  <si>
+    <t>Diesease Table</t>
+  </si>
+  <si>
+    <t>Can call doctor according to appointment</t>
+  </si>
+  <si>
+    <t>Can call diesease api to get all info that patient needs</t>
   </si>
 </sst>
 </file>
@@ -504,38 +516,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{821585E0-0B31-4E3E-9BAF-78E59CAA7D73}">
-  <dimension ref="B1:T17"/>
+  <dimension ref="B1:U17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+      <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="4.88671875" customWidth="1"/>
-    <col min="16" max="16" width="24.21875" customWidth="1"/>
+    <col min="16" max="16" width="40.44140625" customWidth="1"/>
     <col min="17" max="17" width="4.21875" hidden="1" customWidth="1"/>
     <col min="18" max="18" width="8.88671875" hidden="1" customWidth="1"/>
     <col min="19" max="19" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:21" x14ac:dyDescent="0.3">
       <c r="F1" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="P1" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
     </row>
-    <row r="2" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B2">
         <v>1</v>
       </c>
@@ -558,16 +570,16 @@
         <v>15</v>
       </c>
       <c r="P2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="S2" t="s">
-        <v>30</v>
-      </c>
-      <c r="T2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="U2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="2:21" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>5</v>
       </c>
@@ -587,16 +599,16 @@
         <v>5</v>
       </c>
       <c r="P3" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="S3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+      <c r="U3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="2:21" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>6</v>
       </c>
@@ -616,20 +628,20 @@
         <v>18</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="O4" s="1"/>
       <c r="P4" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="S4" t="s">
-        <v>14</v>
-      </c>
-      <c r="T4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+      <c r="U4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="2:21" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>7</v>
       </c>
@@ -648,17 +660,8 @@
       <c r="M5" t="s">
         <v>19</v>
       </c>
-      <c r="P5" t="s">
-        <v>26</v>
-      </c>
-      <c r="S5" t="s">
-        <v>27</v>
-      </c>
-      <c r="T5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="2:21" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>8</v>
       </c>
@@ -672,22 +675,19 @@
         <v>16</v>
       </c>
       <c r="K6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="M6" t="s">
         <v>16</v>
       </c>
       <c r="P6" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="S6" t="s">
-        <v>28</v>
-      </c>
-      <c r="T6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="2:21" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>25</v>
       </c>
@@ -698,24 +698,21 @@
         <v>10</v>
       </c>
       <c r="K7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="M7" t="s">
         <v>14</v>
       </c>
-      <c r="T7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="2:21" x14ac:dyDescent="0.3">
       <c r="I8" t="s">
         <v>17</v>
       </c>
       <c r="K8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>2</v>
       </c>
@@ -733,7 +730,7 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
     </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:21" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>21</v>
       </c>
@@ -748,7 +745,7 @@
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
     </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:21" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>22</v>
       </c>
@@ -763,7 +760,7 @@
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
     </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:21" x14ac:dyDescent="0.3">
       <c r="C13" s="2" t="s">
         <v>23</v>
       </c>
@@ -778,7 +775,7 @@
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
     </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:21" x14ac:dyDescent="0.3">
       <c r="C14" s="2" t="s">
         <v>24</v>
       </c>
@@ -793,9 +790,9 @@
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
     </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:21" x14ac:dyDescent="0.3">
       <c r="C15" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -808,9 +805,9 @@
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
     </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:21" x14ac:dyDescent="0.3">
       <c r="C16" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -825,7 +822,7 @@
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/MicroservicesAssignment2/MicroservicesAssignment2.xlsx
+++ b/MicroservicesAssignment2/MicroservicesAssignment2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Placement\assignments\Gateway-Assignments\MicroservicesAssignment2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71E5C16E-3B9C-4A27-B9E0-D3985138307B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F350E26-6B5B-4F53-8A2C-9D82D6E6ED0B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4AE0A63C-8B27-41F2-BC31-718AAFAF1380}"/>
   </bookViews>
@@ -25,22 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="46">
-  <si>
-    <t>Staff</t>
-  </si>
-  <si>
-    <t>Doctor</t>
-  </si>
-  <si>
-    <t>Patient</t>
-  </si>
-  <si>
-    <t>Appointments</t>
-  </si>
-  <si>
-    <t>Medicine</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="52">
   <si>
     <t>ID</t>
   </si>
@@ -48,45 +33,12 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Quantity</t>
-  </si>
-  <si>
-    <t>Disease</t>
-  </si>
-  <si>
     <t>Id</t>
   </si>
   <si>
     <t>Address</t>
   </si>
   <si>
-    <t>Role</t>
-  </si>
-  <si>
-    <t>Specialization</t>
-  </si>
-  <si>
-    <t>Cabinet no.</t>
-  </si>
-  <si>
-    <t>PatientID</t>
-  </si>
-  <si>
-    <t>Diesease</t>
-  </si>
-  <si>
-    <t>DoctorID</t>
-  </si>
-  <si>
-    <t>Contact</t>
-  </si>
-  <si>
-    <t>AppID</t>
-  </si>
-  <si>
-    <t>Symtoms</t>
-  </si>
-  <si>
     <t>What is bounded Context?</t>
   </si>
   <si>
@@ -102,27 +54,9 @@
     <t>A bounded context should only be maintained by a single team.</t>
   </si>
   <si>
-    <t>LabelNo.</t>
-  </si>
-  <si>
-    <t>HospitalManagement.Api</t>
-  </si>
-  <si>
-    <t>Doctor.Api</t>
-  </si>
-  <si>
     <t xml:space="preserve">  --------------------&gt;</t>
   </si>
   <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Time</t>
-  </si>
-  <si>
-    <t>Booking Date and time</t>
-  </si>
-  <si>
     <t>Deciding the boundaries of a microservice is not an easy task.Boounded Contexts from Domain Driven Design is a good</t>
   </si>
   <si>
@@ -138,39 +72,131 @@
     <t>Microservices</t>
   </si>
   <si>
-    <t>Apponitment Table</t>
-  </si>
-  <si>
-    <t>Patient table</t>
-  </si>
-  <si>
-    <t>Staff Table</t>
-  </si>
-  <si>
-    <t>Diesease.Api</t>
-  </si>
-  <si>
-    <t>Doctor table</t>
-  </si>
-  <si>
-    <t>Medicine Table</t>
-  </si>
-  <si>
-    <t>Diesease Table</t>
-  </si>
-  <si>
-    <t>Can call doctor according to appointment</t>
-  </si>
-  <si>
-    <t>Can call diesease api to get all info that patient needs</t>
+    <t>Customer</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Phone no.</t>
+  </si>
+  <si>
+    <t>Passport no.</t>
+  </si>
+  <si>
+    <t>Airport</t>
+  </si>
+  <si>
+    <t>Airportname</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Airline</t>
+  </si>
+  <si>
+    <t>AirlineCode</t>
+  </si>
+  <si>
+    <t>Flight</t>
+  </si>
+  <si>
+    <t>SourceCity</t>
+  </si>
+  <si>
+    <t>flightNumber</t>
+  </si>
+  <si>
+    <t>Destination City</t>
+  </si>
+  <si>
+    <t>Flight Date</t>
+  </si>
+  <si>
+    <t>AirlineID</t>
+  </si>
+  <si>
+    <t>Seats</t>
+  </si>
+  <si>
+    <t>SeatNum</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>FlightID</t>
+  </si>
+  <si>
+    <t>Booking</t>
+  </si>
+  <si>
+    <t>SeatId</t>
+  </si>
+  <si>
+    <t>CustomerId</t>
+  </si>
+  <si>
+    <t>Flight.API</t>
+  </si>
+  <si>
+    <t>Airline Table</t>
+  </si>
+  <si>
+    <t>Flight Table</t>
+  </si>
+  <si>
+    <t>Seats Table</t>
+  </si>
+  <si>
+    <t>Booking.API</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seats </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID </t>
+  </si>
+  <si>
+    <t>Booking Table</t>
+  </si>
+  <si>
+    <t>FlightNum</t>
+  </si>
+  <si>
+    <t>User.Api</t>
+  </si>
+  <si>
+    <t>User Table</t>
+  </si>
+  <si>
+    <t>Airport.API</t>
+  </si>
+  <si>
+    <t>Airport Table</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -198,10 +224,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -519,28 +546,30 @@
   <dimension ref="B1:U17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="S6" sqref="S6"/>
+      <selection activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="4.88671875" customWidth="1"/>
-    <col min="16" max="16" width="40.44140625" customWidth="1"/>
+    <col min="16" max="16" width="25.88671875" customWidth="1"/>
     <col min="17" max="17" width="4.21875" hidden="1" customWidth="1"/>
     <col min="18" max="18" width="8.88671875" hidden="1" customWidth="1"/>
     <col min="19" max="19" width="14.33203125" customWidth="1"/>
+    <col min="20" max="20" width="13.109375" customWidth="1"/>
+    <col min="21" max="21" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:21" x14ac:dyDescent="0.3">
       <c r="F1" s="1" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="P1" s="1" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
@@ -552,164 +581,172 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="I2" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="K2" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="M2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="P2" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="S2" t="s">
-        <v>27</v>
+        <v>43</v>
+      </c>
+      <c r="T2" t="s">
+        <v>50</v>
       </c>
       <c r="U2" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="2:21" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="I3" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P3" t="s">
-        <v>37</v>
-      </c>
-      <c r="S3" t="s">
-        <v>38</v>
-      </c>
-      <c r="U3" t="s">
-        <v>43</v>
+        <v>0</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="2:21" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="K4" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="M4" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="O4" s="1"/>
-      <c r="P4" t="s">
-        <v>39</v>
+      <c r="P4" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="S4" t="s">
-        <v>41</v>
-      </c>
-      <c r="U4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="2:21" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I5" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="K5" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="M5" t="s">
-        <v>19</v>
+        <v>38</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="S5" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:21" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="I6" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="K6" t="s">
-        <v>29</v>
-      </c>
-      <c r="M6" t="s">
-        <v>16</v>
-      </c>
-      <c r="P6" t="s">
-        <v>44</v>
-      </c>
-      <c r="S6" t="s">
-        <v>45</v>
+        <v>33</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="2:21" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I7" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="K7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M7" t="s">
-        <v>14</v>
+        <v>34</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
       <c r="I8" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="K8" t="s">
-        <v>31</v>
+        <v>35</v>
+      </c>
+      <c r="S8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="S9" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="2:21" x14ac:dyDescent="0.3">
@@ -717,7 +754,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -732,7 +769,7 @@
     </row>
     <row r="11" spans="2:21" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -747,7 +784,7 @@
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -762,7 +799,7 @@
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.3">
       <c r="C13" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -777,7 +814,7 @@
     </row>
     <row r="14" spans="2:21" x14ac:dyDescent="0.3">
       <c r="C14" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -792,7 +829,7 @@
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.3">
       <c r="C15" s="2" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -807,7 +844,7 @@
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.3">
       <c r="C16" s="2" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -822,7 +859,7 @@
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
